--- a/xlsx/W_intext.xlsx
+++ b/xlsx/W_intext.xlsx
@@ -29,7 +29,7 @@
     <t>W (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_W</t>
+    <t>政策_政策_维基百科_W</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ASCII</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AF%AB%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>大寫字母</t>
+    <t>大写字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AF%AB%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>小寫字母</t>
+    <t>小写字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%88%BE%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>日爾曼語族</t>
+    <t>日尔曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%87%E9%BD%92%E8%BF%91%E9%9F%B3</t>
   </si>
   <si>
-    <t>唇齒近音</t>
+    <t>唇齿近音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AF%AD</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BF%A1%E8%99%9F%E6%97%97</t>
   </si>
   <si>
-    <t>國際信號旗</t>
+    <t>国际信号旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>旗語</t>
+    <t>旗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E6%96%87</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D%E7%99%BC%E5%B1%95%E5%8F%B2</t>
   </si>
   <si>
-    <t>拉丁字母發展史</t>
+    <t>拉丁字母发展史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%8B%89%E4%B8%81%E6%96%87%E5%AD%97%E8%AE%8A%E9%AB%94</t>
   </si>
   <si>
-    <t>中古拉丁文字變體</t>
+    <t>中古拉丁文字变体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E5%AD%97</t>
   </si>
   <si>
-    <t>連字</t>
+    <t>连字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8D%E7%94%9F%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
